--- a/NC State Senate/SD3/Results.xlsx
+++ b/NC State Senate/SD3/Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echen\Documents\GitHub\QGIS-Politics\NC State Senate\SD3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545895B3-1DE3-49C3-853D-96E0A32860A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC016C-E924-4CB8-BBF3-A9A3FE0D24D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 Results" sheetId="3" r:id="rId1"/>
     <sheet name="2016 Results" sheetId="4" r:id="rId2"/>
     <sheet name="2012 Results" sheetId="5" r:id="rId3"/>
+    <sheet name="2016 Gov Results" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>County</t>
   </si>
@@ -407,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD93A9A-F095-49DA-B8A6-60161DCEC795}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1166,4 +1167,259 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340C8A2A-244B-46C9-A656-0B2012BF63D6}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>8855</v>
+      </c>
+      <c r="C2">
+        <v>14610</v>
+      </c>
+      <c r="D2">
+        <v>23787</v>
+      </c>
+      <c r="E2" s="1">
+        <f>B2/D2</f>
+        <v>0.37226216000336321</v>
+      </c>
+      <c r="F2" s="1">
+        <f>C2/D2</f>
+        <v>0.61420103417833272</v>
+      </c>
+      <c r="G2" s="1">
+        <f>(B2-C2)/D2</f>
+        <v>-0.24193887417496951</v>
+      </c>
+      <c r="H2" s="1">
+        <f>D2/$D$8</f>
+        <v>0.28195007467463196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5501</v>
+      </c>
+      <c r="C3">
+        <v>3700</v>
+      </c>
+      <c r="D3">
+        <v>9261</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E8" si="0">B3/D3</f>
+        <v>0.59399632869020624</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F8" si="1">C3/D3</f>
+        <v>0.39952488932080771</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G8" si="2">(B3-C3)/D3</f>
+        <v>0.19447143936939856</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H8" si="3">D3/$D$8</f>
+        <v>0.10977170898229144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>5783</v>
+      </c>
+      <c r="C4">
+        <v>6015</v>
+      </c>
+      <c r="D4">
+        <v>11886</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48653878512535759</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50605754669358904</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.9518761568231534E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14088613896593413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>6101</v>
+      </c>
+      <c r="C5">
+        <v>3617</v>
+      </c>
+      <c r="D5">
+        <v>9787</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62337795034229082</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36957188106672118</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25380606927556965</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11600644809520423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>12267</v>
+      </c>
+      <c r="C6">
+        <v>7381</v>
+      </c>
+      <c r="D6">
+        <v>19849</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61801602095823471</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37185752430852942</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24615849664970527</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.23527250314107578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>6474</v>
+      </c>
+      <c r="C7">
+        <v>3219</v>
+      </c>
+      <c r="D7">
+        <v>9796</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6608819926500612</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32860351163740303</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33227848101265822</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11611312614086243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>44981</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C2:C7)</f>
+        <v>38542</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D2:D7)</f>
+        <v>84366</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5331650190835171</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45684280397316457</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6322215110352518E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>